--- a/results/5min/small_window_10days.xlsx
+++ b/results/5min/small_window_10days.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,10 +456,15 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>y_score</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>confidence</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>x_number_of_days_before_delivery</t>
         </is>
@@ -482,9 +487,12 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8736646771430969</v>
+        <v>0.03647119551897049</v>
       </c>
       <c r="G2" t="n">
+        <v>0.9635288044810295</v>
+      </c>
+      <c r="H2" t="n">
         <v>14</v>
       </c>
     </row>
@@ -505,9 +513,12 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8924414962530136</v>
+        <v>0.001941915834322572</v>
       </c>
       <c r="G3" t="n">
+        <v>0.9980580841656774</v>
+      </c>
+      <c r="H3" t="n">
         <v>12</v>
       </c>
     </row>
@@ -522,15 +533,18 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5467877984046936</v>
+        <v>0.0002778966154437512</v>
       </c>
       <c r="G4" t="n">
+        <v>0.9997221033845562</v>
+      </c>
+      <c r="H4" t="n">
         <v>11</v>
       </c>
     </row>
@@ -551,9 +565,12 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5786484181880951</v>
+        <v>0.002217677654698491</v>
       </c>
       <c r="G5" t="n">
+        <v>0.9977823223453015</v>
+      </c>
+      <c r="H5" t="n">
         <v>12</v>
       </c>
     </row>
@@ -574,9 +591,12 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8457282930612564</v>
+        <v>0.0005615261034108698</v>
       </c>
       <c r="G6" t="n">
+        <v>0.9994384738965891</v>
+      </c>
+      <c r="H6" t="n">
         <v>11</v>
       </c>
     </row>
@@ -597,9 +617,12 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8404671102762222</v>
+        <v>0.00444635096937418</v>
       </c>
       <c r="G7" t="n">
+        <v>0.9955536490306258</v>
+      </c>
+      <c r="H7" t="n">
         <v>14</v>
       </c>
     </row>
@@ -620,9 +643,12 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.885401226580143</v>
+        <v>0.002013185527175665</v>
       </c>
       <c r="G8" t="n">
+        <v>0.9979868144728243</v>
+      </c>
+      <c r="H8" t="n">
         <v>10</v>
       </c>
     </row>
@@ -643,9 +669,12 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8219065070152283</v>
+        <v>0.005330591462552547</v>
       </c>
       <c r="G9" t="n">
+        <v>0.9946694085374475</v>
+      </c>
+      <c r="H9" t="n">
         <v>10</v>
       </c>
     </row>
@@ -666,9 +695,12 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9517604559659958</v>
+        <v>0.01206248719245195</v>
       </c>
       <c r="G10" t="n">
+        <v>0.987937512807548</v>
+      </c>
+      <c r="H10" t="n">
         <v>10</v>
       </c>
     </row>
@@ -689,9 +721,12 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8490216135978699</v>
+        <v>0.0008144807070493698</v>
       </c>
       <c r="G11" t="n">
+        <v>0.9991855192929506</v>
+      </c>
+      <c r="H11" t="n">
         <v>9</v>
       </c>
     </row>
@@ -712,9 +747,12 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9568828567862511</v>
+        <v>0.01662949845194817</v>
       </c>
       <c r="G12" t="n">
+        <v>0.9833705015480518</v>
+      </c>
+      <c r="H12" t="n">
         <v>13</v>
       </c>
     </row>
@@ -735,9 +773,12 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5924388468265533</v>
+        <v>0.0009069851948879659</v>
       </c>
       <c r="G13" t="n">
+        <v>0.999093014805112</v>
+      </c>
+      <c r="H13" t="n">
         <v>6</v>
       </c>
     </row>
@@ -758,9 +799,12 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9692855235189199</v>
+        <v>0.001369096571579576</v>
       </c>
       <c r="G14" t="n">
+        <v>0.9986309034284204</v>
+      </c>
+      <c r="H14" t="n">
         <v>6</v>
       </c>
     </row>
@@ -781,9 +825,12 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8829441517591476</v>
+        <v>0.003863960038870573</v>
       </c>
       <c r="G15" t="n">
+        <v>0.9961360399611294</v>
+      </c>
+      <c r="H15" t="n">
         <v>11</v>
       </c>
     </row>
@@ -804,9 +851,12 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8420690149068832</v>
+        <v>0.001204949570819736</v>
       </c>
       <c r="G16" t="n">
+        <v>0.9987950504291803</v>
+      </c>
+      <c r="H16" t="n">
         <v>12</v>
       </c>
     </row>
@@ -827,9 +877,12 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.974009744822979</v>
+        <v>0.00283706933259964</v>
       </c>
       <c r="G17" t="n">
+        <v>0.9971629306674004</v>
+      </c>
+      <c r="H17" t="n">
         <v>11</v>
       </c>
     </row>
@@ -850,9 +903,12 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.929031565785408</v>
+        <v>0.03444575518369675</v>
       </c>
       <c r="G18" t="n">
+        <v>0.9655542448163033</v>
+      </c>
+      <c r="H18" t="n">
         <v>13</v>
       </c>
     </row>
@@ -873,9 +929,12 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.885941855609417</v>
+        <v>0.004679372534155846</v>
       </c>
       <c r="G19" t="n">
+        <v>0.9953206274658442</v>
+      </c>
+      <c r="H19" t="n">
         <v>11</v>
       </c>
     </row>
@@ -896,9 +955,12 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7761493921279907</v>
+        <v>0.000992130022495985</v>
       </c>
       <c r="G20" t="n">
+        <v>0.999007869977504</v>
+      </c>
+      <c r="H20" t="n">
         <v>12</v>
       </c>
     </row>
@@ -919,9 +981,12 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.909042976796627</v>
+        <v>0.003428616328164935</v>
       </c>
       <c r="G21" t="n">
+        <v>0.9965713836718351</v>
+      </c>
+      <c r="H21" t="n">
         <v>15</v>
       </c>
     </row>
@@ -942,9 +1007,12 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.892853245139122</v>
+        <v>0.003870083950459957</v>
       </c>
       <c r="G22" t="n">
+        <v>0.99612991604954</v>
+      </c>
+      <c r="H22" t="n">
         <v>14</v>
       </c>
     </row>
@@ -965,9 +1033,12 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7022693753242493</v>
+        <v>0.02312907204031944</v>
       </c>
       <c r="G23" t="n">
+        <v>0.9768709279596806</v>
+      </c>
+      <c r="H23" t="n">
         <v>9</v>
       </c>
     </row>
@@ -988,9 +1059,12 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9323555305600166</v>
+        <v>0.007762184366583824</v>
       </c>
       <c r="G24" t="n">
+        <v>0.9922378156334162</v>
+      </c>
+      <c r="H24" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1011,9 +1085,12 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8939813897013664</v>
+        <v>0.001876214053481817</v>
       </c>
       <c r="G25" t="n">
+        <v>0.9981237859465182</v>
+      </c>
+      <c r="H25" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1034,9 +1111,12 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9751839153468609</v>
+        <v>0.006939265877008438</v>
       </c>
       <c r="G26" t="n">
+        <v>0.9930607341229916</v>
+      </c>
+      <c r="H26" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1057,9 +1137,12 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9845147561281919</v>
+        <v>0.003250374225899577</v>
       </c>
       <c r="G27" t="n">
+        <v>0.9967496257741004</v>
+      </c>
+      <c r="H27" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1080,9 +1163,12 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.6380589008331299</v>
+        <v>0.003425875678658485</v>
       </c>
       <c r="G28" t="n">
+        <v>0.9965741243213415</v>
+      </c>
+      <c r="H28" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1103,9 +1189,12 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9768577814102173</v>
+        <v>0.9911692142486572</v>
       </c>
       <c r="G29" t="n">
+        <v>0.9911692142486572</v>
+      </c>
+      <c r="H29" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1126,9 +1215,12 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9741031527519226</v>
+        <v>0.9998646974563599</v>
       </c>
       <c r="G30" t="n">
+        <v>0.9998646974563599</v>
+      </c>
+      <c r="H30" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1149,9 +1241,12 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9259617924690247</v>
+        <v>0.9936843514442444</v>
       </c>
       <c r="G31" t="n">
+        <v>0.9936843514442444</v>
+      </c>
+      <c r="H31" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1172,9 +1267,12 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9748615026473999</v>
+        <v>0.9991869330406189</v>
       </c>
       <c r="G32" t="n">
+        <v>0.9991869330406189</v>
+      </c>
+      <c r="H32" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1195,9 +1293,12 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9716832041740417</v>
+        <v>0.9969736337661743</v>
       </c>
       <c r="G33" t="n">
+        <v>0.9969736337661743</v>
+      </c>
+      <c r="H33" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1218,9 +1319,12 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8324480652809143</v>
+        <v>0.9996059536933899</v>
       </c>
       <c r="G34" t="n">
+        <v>0.9996059536933899</v>
+      </c>
+      <c r="H34" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1241,9 +1345,12 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8666048049926758</v>
+        <v>0.9749023914337158</v>
       </c>
       <c r="G35" t="n">
+        <v>0.9749023914337158</v>
+      </c>
+      <c r="H35" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1264,9 +1371,12 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9074777364730835</v>
+        <v>0.99955815076828</v>
       </c>
       <c r="G36" t="n">
+        <v>0.99955815076828</v>
+      </c>
+      <c r="H36" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1287,9 +1397,12 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9125206470489502</v>
+        <v>0.9982159733772278</v>
       </c>
       <c r="G37" t="n">
+        <v>0.9982159733772278</v>
+      </c>
+      <c r="H37" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1310,9 +1423,12 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9367814660072327</v>
+        <v>0.9980789422988892</v>
       </c>
       <c r="G38" t="n">
+        <v>0.9980789422988892</v>
+      </c>
+      <c r="H38" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1333,9 +1449,12 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9757709503173828</v>
+        <v>0.9975305199623108</v>
       </c>
       <c r="G39" t="n">
+        <v>0.9975305199623108</v>
+      </c>
+      <c r="H39" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1350,15 +1469,18 @@
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.5064423680305481</v>
+        <v>0.9989060163497925</v>
       </c>
       <c r="G40" t="n">
+        <v>0.9989060163497925</v>
+      </c>
+      <c r="H40" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1379,9 +1501,12 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9623588919639587</v>
+        <v>0.9990566372871399</v>
       </c>
       <c r="G41" t="n">
+        <v>0.9990566372871399</v>
+      </c>
+      <c r="H41" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1402,9 +1527,12 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8974084258079529</v>
+        <v>0.9952538013458252</v>
       </c>
       <c r="G42" t="n">
+        <v>0.9952538013458252</v>
+      </c>
+      <c r="H42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1425,9 +1553,12 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9778474569320679</v>
+        <v>0.9999933242797852</v>
       </c>
       <c r="G43" t="n">
+        <v>0.9999933242797852</v>
+      </c>
+      <c r="H43" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1448,9 +1579,12 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9343146681785583</v>
+        <v>0.9998102784156799</v>
       </c>
       <c r="G44" t="n">
+        <v>0.9998102784156799</v>
+      </c>
+      <c r="H44" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1471,9 +1605,12 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9543558955192566</v>
+        <v>0.9979508519172668</v>
       </c>
       <c r="G45" t="n">
+        <v>0.9979508519172668</v>
+      </c>
+      <c r="H45" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1494,9 +1631,12 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9685449004173279</v>
+        <v>0.9746773242950439</v>
       </c>
       <c r="G46" t="n">
+        <v>0.9746773242950439</v>
+      </c>
+      <c r="H46" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1517,9 +1657,12 @@
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9044828414916992</v>
+        <v>0.9987913966178894</v>
       </c>
       <c r="G47" t="n">
+        <v>0.9987913966178894</v>
+      </c>
+      <c r="H47" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1540,9 +1683,12 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.8665375113487244</v>
+        <v>0.9995200634002686</v>
       </c>
       <c r="G48" t="n">
+        <v>0.9995200634002686</v>
+      </c>
+      <c r="H48" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1563,9 +1709,12 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9828716516494751</v>
+        <v>0.9999117851257324</v>
       </c>
       <c r="G49" t="n">
+        <v>0.9999117851257324</v>
+      </c>
+      <c r="H49" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1586,9 +1735,12 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9530763030052185</v>
+        <v>0.9998760223388672</v>
       </c>
       <c r="G50" t="n">
+        <v>0.9998760223388672</v>
+      </c>
+      <c r="H50" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1609,9 +1761,12 @@
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.98758465051651</v>
+        <v>0.9992181062698364</v>
       </c>
       <c r="G51" t="n">
+        <v>0.9992181062698364</v>
+      </c>
+      <c r="H51" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1632,9 +1787,12 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9274904727935791</v>
+        <v>0.978851318359375</v>
       </c>
       <c r="G52" t="n">
+        <v>0.978851318359375</v>
+      </c>
+      <c r="H52" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1655,9 +1813,12 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.7449319958686829</v>
+        <v>0.9971874356269836</v>
       </c>
       <c r="G53" t="n">
+        <v>0.9971874356269836</v>
+      </c>
+      <c r="H53" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1678,9 +1839,12 @@
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9839157462120056</v>
+        <v>0.9987946748733521</v>
       </c>
       <c r="G54" t="n">
+        <v>0.9987946748733521</v>
+      </c>
+      <c r="H54" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1701,9 +1865,12 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9740248918533325</v>
+        <v>0.9989789724349976</v>
       </c>
       <c r="G55" t="n">
+        <v>0.9989789724349976</v>
+      </c>
+      <c r="H55" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1724,9 +1891,12 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.8657426238059998</v>
+        <v>0.9980428218841553</v>
       </c>
       <c r="G56" t="n">
+        <v>0.9980428218841553</v>
+      </c>
+      <c r="H56" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1747,9 +1917,12 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9631024599075317</v>
+        <v>0.9981728792190552</v>
       </c>
       <c r="G57" t="n">
+        <v>0.9981728792190552</v>
+      </c>
+      <c r="H57" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1770,9 +1943,12 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.96073979139328</v>
+        <v>0.983159065246582</v>
       </c>
       <c r="G58" t="n">
+        <v>0.983159065246582</v>
+      </c>
+      <c r="H58" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1793,9 +1969,12 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9387561082839966</v>
+        <v>0.99958735704422</v>
       </c>
       <c r="G59" t="n">
+        <v>0.99958735704422</v>
+      </c>
+      <c r="H59" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1816,9 +1995,12 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9780796766281128</v>
+        <v>0.9954259991645813</v>
       </c>
       <c r="G60" t="n">
+        <v>0.9954259991645813</v>
+      </c>
+      <c r="H60" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1839,9 +2021,12 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.91492760181427</v>
+        <v>0.9649189710617065</v>
       </c>
       <c r="G61" t="n">
+        <v>0.9649189710617065</v>
+      </c>
+      <c r="H61" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1862,9 +2047,12 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9890881776809692</v>
+        <v>0.9937738180160522</v>
       </c>
       <c r="G62" t="n">
+        <v>0.9937738180160522</v>
+      </c>
+      <c r="H62" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1885,9 +2073,12 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9703423976898193</v>
+        <v>0.9998356103897095</v>
       </c>
       <c r="G63" t="n">
+        <v>0.9998356103897095</v>
+      </c>
+      <c r="H63" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1908,9 +2099,12 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9713026881217957</v>
+        <v>0.9991077780723572</v>
       </c>
       <c r="G64" t="n">
+        <v>0.9991077780723572</v>
+      </c>
+      <c r="H64" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1931,9 +2125,12 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9285263419151306</v>
+        <v>0.9863308668136597</v>
       </c>
       <c r="G65" t="n">
+        <v>0.9863308668136597</v>
+      </c>
+      <c r="H65" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1954,9 +2151,12 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9862013459205627</v>
+        <v>0.998248815536499</v>
       </c>
       <c r="G66" t="n">
+        <v>0.998248815536499</v>
+      </c>
+      <c r="H66" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1977,9 +2177,12 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.8829594850540161</v>
+        <v>0.9910926222801208</v>
       </c>
       <c r="G67" t="n">
+        <v>0.9910926222801208</v>
+      </c>
+      <c r="H67" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2000,9 +2203,12 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9394438862800598</v>
+        <v>0.999910831451416</v>
       </c>
       <c r="G68" t="n">
+        <v>0.999910831451416</v>
+      </c>
+      <c r="H68" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2023,9 +2229,12 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.937535285949707</v>
+        <v>0.9988762736320496</v>
       </c>
       <c r="G69" t="n">
+        <v>0.9988762736320496</v>
+      </c>
+      <c r="H69" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2046,9 +2255,12 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9543701410293579</v>
+        <v>0.994179368019104</v>
       </c>
       <c r="G70" t="n">
+        <v>0.994179368019104</v>
+      </c>
+      <c r="H70" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2069,9 +2281,12 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.8854798078536987</v>
+        <v>0.9938042163848877</v>
       </c>
       <c r="G71" t="n">
+        <v>0.9938042163848877</v>
+      </c>
+      <c r="H71" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2092,9 +2307,12 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9809231758117676</v>
+        <v>0.9893743395805359</v>
       </c>
       <c r="G72" t="n">
+        <v>0.9893743395805359</v>
+      </c>
+      <c r="H72" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2115,9 +2333,12 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9349840879440308</v>
+        <v>0.9984195232391357</v>
       </c>
       <c r="G73" t="n">
+        <v>0.9984195232391357</v>
+      </c>
+      <c r="H73" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2138,9 +2359,12 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.976125180721283</v>
+        <v>0.9995667338371277</v>
       </c>
       <c r="G74" t="n">
+        <v>0.9995667338371277</v>
+      </c>
+      <c r="H74" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2161,9 +2385,12 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9675835967063904</v>
+        <v>0.9959067106246948</v>
       </c>
       <c r="G75" t="n">
+        <v>0.9959067106246948</v>
+      </c>
+      <c r="H75" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2184,9 +2411,12 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9905419945716858</v>
+        <v>0.9994933605194092</v>
       </c>
       <c r="G76" t="n">
+        <v>0.9994933605194092</v>
+      </c>
+      <c r="H76" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2207,9 +2437,12 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9549400806427002</v>
+        <v>0.9996250867843628</v>
       </c>
       <c r="G77" t="n">
+        <v>0.9996250867843628</v>
+      </c>
+      <c r="H77" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2230,9 +2463,12 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.991199791431427</v>
+        <v>0.9998010993003845</v>
       </c>
       <c r="G78" t="n">
+        <v>0.9998010993003845</v>
+      </c>
+      <c r="H78" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2253,9 +2489,12 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9146877527236938</v>
+        <v>0.998087465763092</v>
       </c>
       <c r="G79" t="n">
+        <v>0.998087465763092</v>
+      </c>
+      <c r="H79" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2276,9 +2515,12 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9900357723236084</v>
+        <v>0.9762104749679565</v>
       </c>
       <c r="G80" t="n">
+        <v>0.9762104749679565</v>
+      </c>
+      <c r="H80" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2299,9 +2541,12 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9914728403091431</v>
+        <v>0.9920710921287537</v>
       </c>
       <c r="G81" t="n">
+        <v>0.9920710921287537</v>
+      </c>
+      <c r="H81" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2322,9 +2567,12 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9883795976638794</v>
+        <v>0.9999535083770752</v>
       </c>
       <c r="G82" t="n">
+        <v>0.9999535083770752</v>
+      </c>
+      <c r="H82" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2345,9 +2593,12 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9821140170097351</v>
+        <v>0.9995052814483643</v>
       </c>
       <c r="G83" t="n">
+        <v>0.9995052814483643</v>
+      </c>
+      <c r="H83" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2368,9 +2619,12 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9650541543960571</v>
+        <v>0.9987571239471436</v>
       </c>
       <c r="G84" t="n">
+        <v>0.9987571239471436</v>
+      </c>
+      <c r="H84" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2391,9 +2645,12 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9557414650917053</v>
+        <v>0.9760528206825256</v>
       </c>
       <c r="G85" t="n">
+        <v>0.9760528206825256</v>
+      </c>
+      <c r="H85" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2414,9 +2671,12 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9489881992340088</v>
+        <v>0.9999600648880005</v>
       </c>
       <c r="G86" t="n">
+        <v>0.9999600648880005</v>
+      </c>
+      <c r="H86" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2437,9 +2697,12 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9591663479804993</v>
+        <v>0.9998157620429993</v>
       </c>
       <c r="G87" t="n">
+        <v>0.9998157620429993</v>
+      </c>
+      <c r="H87" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2454,15 +2717,18 @@
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0.5032192468643188</v>
+        <v>0.9988442659378052</v>
       </c>
       <c r="G88" t="n">
+        <v>0.9988442659378052</v>
+      </c>
+      <c r="H88" t="n">
         <v>11</v>
       </c>
     </row>
@@ -2477,15 +2743,18 @@
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9228343367576599</v>
+        <v>0.9268786907196045</v>
       </c>
       <c r="G89" t="n">
+        <v>0.9268786907196045</v>
+      </c>
+      <c r="H89" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2506,9 +2775,12 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9788322448730469</v>
+        <v>0.9839463233947754</v>
       </c>
       <c r="G90" t="n">
+        <v>0.9839463233947754</v>
+      </c>
+      <c r="H90" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2529,9 +2801,12 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>0.77534419298172</v>
+        <v>0.9996886253356934</v>
       </c>
       <c r="G91" t="n">
+        <v>0.9996886253356934</v>
+      </c>
+      <c r="H91" t="n">
         <v>15</v>
       </c>
     </row>
@@ -2546,15 +2821,18 @@
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.7662776112556458</v>
+        <v>0.4214414358139038</v>
       </c>
       <c r="G92" t="n">
+        <v>0.5785585641860962</v>
+      </c>
+      <c r="H92" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2575,9 +2853,12 @@
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9248831868171692</v>
+        <v>0.9999289512634277</v>
       </c>
       <c r="G93" t="n">
+        <v>0.9999289512634277</v>
+      </c>
+      <c r="H93" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2598,9 +2879,12 @@
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0.8766321539878845</v>
+        <v>0.6719291210174561</v>
       </c>
       <c r="G94" t="n">
+        <v>0.6719291210174561</v>
+      </c>
+      <c r="H94" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2621,9 +2905,12 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6348620653152466</v>
+        <v>0.264855295419693</v>
       </c>
       <c r="G95" t="n">
+        <v>0.735144704580307</v>
+      </c>
+      <c r="H95" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2638,15 +2925,18 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>0.710004597902298</v>
+        <v>0.9994879961013794</v>
       </c>
       <c r="G96" t="n">
+        <v>0.9994879961013794</v>
+      </c>
+      <c r="H96" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2667,9 +2957,12 @@
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9695106148719788</v>
+        <v>0.9564909934997559</v>
       </c>
       <c r="G97" t="n">
+        <v>0.9564909934997559</v>
+      </c>
+      <c r="H97" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2690,9 +2983,12 @@
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0.896803081035614</v>
+        <v>0.9850369095802307</v>
       </c>
       <c r="G98" t="n">
+        <v>0.9850369095802307</v>
+      </c>
+      <c r="H98" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2713,9 +3009,12 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5334149301052094</v>
+        <v>0.1008255258202553</v>
       </c>
       <c r="G99" t="n">
+        <v>0.8991744741797447</v>
+      </c>
+      <c r="H99" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2730,15 +3029,18 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9733328819274902</v>
+        <v>0.01273032836616039</v>
       </c>
       <c r="G100" t="n">
+        <v>0.9872696716338396</v>
+      </c>
+      <c r="H100" t="n">
         <v>14</v>
       </c>
     </row>
